--- a/biology/Zoologie/Asperitas_inquinata/Asperitas_inquinata.xlsx
+++ b/biology/Zoologie/Asperitas_inquinata/Asperitas_inquinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asperitas inquinata est une espèce d'escargots terrestres à respiration aérienne, un mollusque gastéropode de la famille des Dyakiidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet escargot se trouve en Indonésie et à Bali, la sous-espèce A. inquinata penidae étant également présente sur l'île de Penida. 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 mai 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 mai 2023) :
 Asperitas inquinata babarensis B.Rensch, 1931
 Asperitas inquinata batudulangensis B.Rensch, 1931
 Asperitas inquinata inquinata (L.Pfeiffer, 1842)
@@ -576,11 +592,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Asperitas inquinata (L.Pfeiffer, 1842)[1].
-L'espèce a été initialement classée dans le genre Helix sous le protonyme Helix inquinata L.Pfeiffer, 1842[1].
-Asperitas inquinata a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Asperitas inquinata (L.Pfeiffer, 1842).
+L'espèce a été initialement classée dans le genre Helix sous le protonyme Helix inquinata L.Pfeiffer, 1842.
+Asperitas inquinata a pour synonymes :
 Helix inquinata Busch, 1842
 Helix inquinata L.Pfeiffer, 1842</t>
         </is>
